--- a/Organizations/Organizations.xlsx
+++ b/Organizations/Organizations.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Abbr.</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Research, Standards, Design Manuals</t>
+  </si>
+  <si>
+    <t>CWEA</t>
+  </si>
+  <si>
+    <t>California Water Environment Association</t>
+  </si>
+  <si>
+    <t>Certifications</t>
   </si>
 </sst>
 </file>
@@ -436,18 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -564,6 +573,20 @@
         <v>1852</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1927</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
